--- a/API_AUTO/test_data/test_data.xlsx
+++ b/API_AUTO/test_data/test_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15960" windowWidth="28800" xWindow="2220" yWindow="460"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15960" windowWidth="28800" xWindow="0" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
@@ -66,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -102,12 +102,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -116,6 +127,7 @@
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -414,10 +426,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H2:H6"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -427,8 +439,10 @@
     <col customWidth="1" max="4" min="4" width="53.83203125"/>
     <col customWidth="1" max="5" min="5" width="39.83203125"/>
     <col customWidth="1" max="7" min="7" width="9"/>
-    <col customWidth="1" max="8" min="8" width="62.5"/>
-    <col customWidth="1" max="9" min="9" width="14.83203125"/>
+    <col customWidth="1" max="8" min="8" width="28.33203125"/>
+    <col customWidth="1" max="9" min="9" width="23"/>
+    <col customWidth="1" max="10" min="10" width="25"/>
+    <col customWidth="1" max="11" min="11" width="16.6640625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -469,14 +483,20 @@
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>result</t>
+          <t>check_database</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>TestResult</t>
-        </is>
-      </c>
+          <t>response_result</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>test_result</t>
+        </is>
+      </c>
+      <c r="K1" s="8" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -510,16 +530,9 @@
       <c r="G2" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>{'code': 200, 'success': True}</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -553,16 +566,9 @@
       <c r="G3" s="2" t="n">
         <v>401</v>
       </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>{'code': 401, 'success': False, 'msg': '账号或密码错误'}</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -596,16 +602,9 @@
       <c r="G4" s="2" t="n">
         <v>401</v>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>{'code': 401, 'success': False, 'msg': '账号或密码错误'}</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -639,16 +638,9 @@
       <c r="G5" s="2" t="n">
         <v>401</v>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>{'code': 401, 'success': False, 'msg': '账号或密码错误'}</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -682,16 +674,9 @@
       <c r="G6" s="2" t="n">
         <v>401</v>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>{'code': 401, 'success': False, 'msg': '账号或密码错误'}</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -702,6 +687,7 @@
     <hyperlink ref="D6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -711,10 +697,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H2:H5"/>
+    <sheetView topLeftCell="F1" workbookViewId="0" zoomScale="119">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -725,8 +711,9 @@
     <col customWidth="1" max="4" min="4" width="70.83203125"/>
     <col customWidth="1" max="5" min="5" width="42.1640625"/>
     <col customWidth="1" max="7" min="6" width="21.33203125"/>
-    <col customWidth="1" max="8" min="8" width="71.83203125"/>
-    <col customWidth="1" max="9" min="9" width="13.5"/>
+    <col customWidth="1" max="8" min="8" width="61.83203125"/>
+    <col customWidth="1" max="9" min="9" width="71.83203125"/>
+    <col customWidth="1" max="10" min="10" width="38.6640625"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="1">
@@ -767,10 +754,15 @@
       </c>
       <c r="H1" s="6" t="inlineStr">
         <is>
+          <t>check_database</t>
+        </is>
+      </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
           <t>result</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>TestResult</t>
         </is>
@@ -808,16 +800,9 @@
       <c r="G2" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>{'code': 200, 'success': True}</t>
-        </is>
-      </c>
-      <c r="I2" s="5" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="5" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -853,14 +838,11 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>{'code': 200, 'success': True}</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+          <t>select * from payment_account where gift_dealer_id=21</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -895,16 +877,8 @@
         <v>100001</v>
       </c>
       <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>{'code': 401, 'name': 'TOKEN_FAILED', 'msg': 'token校验不通过'}</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -939,16 +913,8 @@
         <v>500</v>
       </c>
       <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>{'code': 401, 'name': 'TOKEN_FAILED', 'msg': 'token校验不通过'}</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -967,17 +933,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col customWidth="1" max="3" min="3" width="15.6640625"/>
     <col customWidth="1" max="4" min="4" width="50"/>
-    <col customWidth="1" max="5" min="5" width="54.83203125"/>
+    <col customWidth="1" max="5" min="5" width="142.33203125"/>
+    <col customWidth="1" max="8" min="8" width="31.33203125"/>
+    <col customWidth="1" max="9" min="9" width="28"/>
+    <col customWidth="1" max="10" min="10" width="20.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1018,12 +987,17 @@
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>result</t>
+          <t>check_database</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>TestResult</t>
+          <t>test_result</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>check_result</t>
         </is>
       </c>
     </row>

--- a/API_AUTO/test_data/test_data.xlsx
+++ b/API_AUTO/test_data/test_data.xlsx
@@ -531,8 +531,16 @@
         <v>200</v>
       </c>
       <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="n"/>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>{'code': 200, 'success': True}</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -567,8 +575,16 @@
         <v>401</v>
       </c>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>{'code': 401, 'success': False, 'msg': '账号或密码错误'}</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -603,8 +619,16 @@
         <v>401</v>
       </c>
       <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>{'code': 401, 'success': False, 'msg': '账号或密码错误'}</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -639,8 +663,16 @@
         <v>401</v>
       </c>
       <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>{'code': 401, 'success': False, 'msg': '账号或密码错误'}</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -675,8 +707,16 @@
         <v>401</v>
       </c>
       <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>{'code': 401, 'success': False, 'msg': '账号或密码错误'}</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
